--- a/Data/Result/ResEmployeeCreation.xlsx
+++ b/Data/Result/ResEmployeeCreation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="7755" windowWidth="19200"/>
+    <workbookView windowHeight="7755" windowWidth="20490"/>
   </bookViews>
   <sheets>
     <sheet name="NewEmp" r:id="rId1" sheetId="1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>TestId</t>
   </si>
@@ -31,13 +31,16 @@
     <t>newemp_001</t>
   </si>
   <si>
-    <t>E</t>
+    <t>P</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>P</t>
+    <t>newemp_002</t>
+  </si>
+  <si>
+    <t>newemp_003</t>
   </si>
 </sst>
 </file>
@@ -67,30 +70,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,13 +86,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -119,9 +94,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,16 +146,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,9 +177,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,51 +201,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,25 +230,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,157 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +421,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,46 +457,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,16 +488,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,151 +510,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="177">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="176">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="5" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="17" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="2" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="177">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="176">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="3" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="5" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="21" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="16" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="16" fontId="21" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="4" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="9" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="9" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="11" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -989,13 +992,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="13.5714285714286" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="7.0" collapsed="true"/>
@@ -1017,7 +1020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1025,6 +1028,28 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
